--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3432.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3432.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.015821810339034</v>
+        <v>1.436250925064087</v>
       </c>
       <c r="B1">
-        <v>2.2982602143323</v>
+        <v>3.284970045089722</v>
       </c>
       <c r="C1">
-        <v>4.335010871614368</v>
+        <v>4.420218467712402</v>
       </c>
       <c r="D1">
-        <v>3.741127746675013</v>
+        <v>2.040529251098633</v>
       </c>
       <c r="E1">
-        <v>1.35039508508078</v>
+        <v>1.162777423858643</v>
       </c>
     </row>
   </sheetData>
